--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92944E-9686-44F1-8926-403518087BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B39CD-4705-45BF-B941-D33567B71D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>SL. No</t>
   </si>
@@ -506,6 +506,57 @@
   </si>
   <si>
     <t xml:space="preserve">It returns back to Outlet page </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage settings-&gt;Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new implementation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Basic'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> receiving option for mobile users       *Remove the "Enable item-by-item selection when marking orders as Received (GRN)" checkbox in 'Outlet settings'- &gt; 'Orders'. This option is currently displayed for outlets in Growth and Premium plans for them to opt-out of GRN. This opt-out option will no longer be offered.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -958,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1284,19 +1335,14 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1307,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1330,19 +1376,43 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B39CD-4705-45BF-B941-D33567B71D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92944E-9686-44F1-8926-403518087BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>SL. No</t>
   </si>
@@ -506,57 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">It returns back to Outlet page </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions-&gt;Manage settings-&gt;Orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new implementation)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Basic'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> receiving option for mobile users       *Remove the "Enable item-by-item selection when marking orders as Received (GRN)" checkbox in 'Outlet settings'- &gt; 'Orders'. This option is currently displayed for outlets in Growth and Premium plans for them to opt-out of GRN. This opt-out option will no longer be offered.
-</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1009,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1335,14 +1284,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1353,19 +1307,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1376,43 +1330,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92944E-9686-44F1-8926-403518087BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626303C3-766F-4E7D-89F9-967CEFA63B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>SL. No</t>
   </si>
@@ -506,6 +506,36 @@
   </si>
   <si>
     <t xml:space="preserve">It returns back to Outlet page </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage settings-&gt;Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new implement)</t>
+    </r>
+  </si>
+  <si>
+    <t>Weekly ordering is enabled for this outlet</t>
+  </si>
+  <si>
+    <t>As expected the result</t>
   </si>
 </sst>
 </file>
@@ -958,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1284,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1307,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1330,15 +1360,35 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626303C3-766F-4E7D-89F9-967CEFA63B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D11BE3-F28C-4CCF-9992-31714469993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>SL. No</t>
   </si>
@@ -372,9 +372,6 @@
     </r>
   </si>
   <si>
-    <t>Enter the Email weekly summary of outlet activity to and select day , And Email list of items that are below par and Email outlet consumption report after stock count to</t>
-  </si>
-  <si>
     <t xml:space="preserve">should give email address it get displayed </t>
   </si>
   <si>
@@ -536,6 +533,85 @@
   </si>
   <si>
     <t>As expected the result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage settings-&gt; Reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the Email weekly summary of outlet activity to and select day </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Send every</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown , And Email list of items that are below par and Email outlet consumption report after stock count to</t>
+    </r>
+  </si>
+  <si>
+    <t>should display the Week starts on dropdown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allow user to specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Week starts on" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropdown</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -988,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1257,7 +1333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1271,16 +1347,16 @@
         <v>36</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1291,19 +1367,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1314,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1337,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1360,19 +1433,22 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1380,19 +1456,43 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D11BE3-F28C-4CCF-9992-31714469993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709907-A324-46A3-A198-24DD878735F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709907-A324-46A3-A198-24DD878735F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA04B9F-E6BC-488B-BA8C-7672ED960727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>SL. No</t>
   </si>
@@ -612,6 +612,47 @@
       </rPr>
       <t>dropdown</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Show order creator instead of final approver as contact person for orders" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, here can choose who should be the contact person for orders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage settings-&gt; Approval workflow(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed succesfully updated the Update approval config</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1344,39 +1385,42 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1387,19 +1431,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1410,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1433,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1456,19 +1497,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1479,15 +1520,38 @@
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets Settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA04B9F-E6BC-488B-BA8C-7672ED960727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578F294D-F2C9-4A2B-98DD-668D8D0D945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">should give email address it get displayed </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -559,8 +556,102 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Enter the Email weekly summary of outlet activity to and select day </t>
+    <t>should display the Week starts on dropdown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allow user to specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Week starts on" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Show order creator instead of final approver as contact person for orders" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, here can choose who should be the contact person for orders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage settings-&gt; Approval workflow(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed succesfully updated the Update approval config</t>
+  </si>
+  <si>
+    <t>should give email address it get displayed, only Owner users receive the weekly emails.</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter the Weekly email report - summary of outlet activity as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sent to all users with Owner permissions)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and select day </t>
     </r>
     <r>
       <rPr>
@@ -581,78 +672,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> dropdown , And Email list of items that are below par and Email outlet consumption report after stock count to</t>
-    </r>
-  </si>
-  <si>
-    <t>should display the Week starts on dropdown</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allow user to specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Week starts on" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dropdown</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Show order creator instead of final approver as contact person for orders" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, here can choose who should be the contact person for orders</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions-&gt;Manage settings-&gt; Approval workflow(new)</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed succesfully updated the Update approval config</t>
+      <t xml:space="preserve"> dropdown ,                                                                   *.And Email list of items that are below par and                               *.Email outlet consumption report after stock count to</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1107,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1411,10 +1432,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1431,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1474,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1497,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -1520,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1543,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
